--- a/doc/draw/测试样例表.xlsx
+++ b/doc/draw/测试样例表.xlsx
@@ -7,9 +7,12 @@
     <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ADir 决策表" sheetId="1" r:id="rId1"/>
-    <sheet name="Chunk 决策表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ADir 测试" sheetId="1" r:id="rId1"/>
+    <sheet name="Chunk 测试" sheetId="2" r:id="rId2"/>
+    <sheet name="测试方法" sheetId="3" r:id="rId3"/>
+    <sheet name="测试过程" sheetId="4" r:id="rId4"/>
+    <sheet name="软件质量评估" sheetId="5" r:id="rId5"/>
+    <sheet name="软件度量" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>类</t>
   </si>
@@ -73,28 +76,154 @@
     <t>Chunk::copyMemory</t>
   </si>
   <si>
-    <t>1（假设内存为3）</t>
-  </si>
-  <si>
-    <t>2（假设内存为3）</t>
-  </si>
-  <si>
-    <t>3（假设内存为3）</t>
-  </si>
-  <si>
-    <t>（全空）（...）</t>
-  </si>
-  <si>
-    <t>（两个为空，剩下一个不为空）（x..）</t>
-  </si>
-  <si>
-    <t>全满（xxx）</t>
-  </si>
-  <si>
-    <t>字符串(12345678)</t>
-  </si>
-  <si>
-    <t>字符串(12)</t>
+    <t>内存大小为4</t>
+  </si>
+  <si>
+    <t>变量初始值为4</t>
+  </si>
+  <si>
+    <t>初始值为0</t>
+  </si>
+  <si>
+    <t>返回结果</t>
+  </si>
+  <si>
+    <t>测试结果说明</t>
+  </si>
+  <si>
+    <t>memoryChunk</t>
+  </si>
+  <si>
+    <t>remainningMemory</t>
+  </si>
+  <si>
+    <t>readPtr</t>
+  </si>
+  <si>
+    <t>（-1或字符串读取的位置）</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>连续输入三次</t>
+  </si>
+  <si>
+    <t>输入：12，0，2</t>
+  </si>
+  <si>
+    <t>12**</t>
+  </si>
+  <si>
+    <t>输入：34，0，2</t>
+  </si>
+  <si>
+    <t>输入：56，0，2</t>
+  </si>
+  <si>
+    <t>调用一次函数</t>
+  </si>
+  <si>
+    <t>输入：123456，0，6</t>
+  </si>
+  <si>
+    <t>内存大小为6</t>
+  </si>
+  <si>
+    <t>初始值为2</t>
+  </si>
+  <si>
+    <t>xx12**</t>
+  </si>
+  <si>
+    <t>xx1234</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>测试方法</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>黑盒测试</t>
+  </si>
+  <si>
+    <t>等价类划分</t>
+  </si>
+  <si>
+    <t>分为三个部分，输入部分（行），有效等价类（列），无效等价类（列）</t>
+  </si>
+  <si>
+    <t>边界值分析</t>
+  </si>
+  <si>
+    <t>错误推测</t>
+  </si>
+  <si>
+    <t>因果图</t>
+  </si>
+  <si>
+    <t>决策树/决策表</t>
+  </si>
+  <si>
+    <t>白盒测试</t>
+  </si>
+  <si>
+    <t>基本路径测试</t>
+  </si>
+  <si>
+    <t>循环覆盖测试</t>
+  </si>
+  <si>
+    <t>逻辑覆盖测试</t>
+  </si>
+  <si>
+    <t>测试过程</t>
+  </si>
+  <si>
+    <t>测试阶段</t>
+  </si>
+  <si>
+    <t>单元测试</t>
+  </si>
+  <si>
+    <t>一般使用白盒测试</t>
+  </si>
+  <si>
+    <t>集中测试</t>
+  </si>
+  <si>
+    <t>确认测试</t>
+  </si>
+  <si>
+    <t>系统测试</t>
+  </si>
+  <si>
+    <t>Gantt 图</t>
+  </si>
+  <si>
+    <t>Pert 图</t>
+  </si>
+  <si>
+    <t>度量方法</t>
+  </si>
+  <si>
+    <t>公式</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>McCaBe 度量法</t>
+  </si>
+  <si>
+    <t>V(G) = m - n + 2</t>
+  </si>
+  <si>
+    <t>可以直接数环的个数</t>
   </si>
 </sst>
 </file>
@@ -454,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -466,6 +595,211 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -482,21 +816,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,19 +838,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -669,7 +975,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,34 +987,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,12 +1099,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,25 +1121,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,19 +1533,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1178,19 +1553,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -1198,51 +1573,51 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1257,99 +1632,269 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="20.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="27.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="52.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="24.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="27.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="12.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="18.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="10.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="27.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="26">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2</v>
+      </c>
+      <c r="F3" s="26">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1234</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3" t="s">
+      <c r="F4" s="26">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="29"/>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1234</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
+      <c r="F6" s="26">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="D9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="E10" s="26">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F10" s="26">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>6</v>
+      </c>
+      <c r="F11" s="26">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="29"/>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>6</v>
+      </c>
+      <c r="F13" s="26">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1360,16 +1905,239 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="72.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.75" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" ht="14.75" spans="1:3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+    <row r="9" ht="14.75" spans="1:3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="18.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" ht="14.75" spans="1:3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="14.75" spans="1:3">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="18.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/draw/测试样例表.xlsx
+++ b/doc/draw/测试样例表.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>类</t>
   </si>
@@ -127,16 +127,22 @@
     <t>输入：123456，0，6</t>
   </si>
   <si>
-    <t>内存大小为6</t>
-  </si>
-  <si>
-    <t>初始值为2</t>
-  </si>
-  <si>
-    <t>xx12**</t>
-  </si>
-  <si>
-    <t>xx1234</t>
+    <t>输入：1234，0，4</t>
+  </si>
+  <si>
+    <t>此时是满串</t>
+  </si>
+  <si>
+    <t>输入：123456，0，3</t>
+  </si>
+  <si>
+    <t>123*</t>
+  </si>
+  <si>
+    <t>输入：123456，2，5</t>
+  </si>
+  <si>
+    <t>345*</t>
   </si>
   <si>
     <t>标题</t>
@@ -1099,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,9 +1169,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,25 +1181,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1533,19 +1527,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1553,19 +1547,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -1573,51 +1567,51 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="33" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1632,13 +1626,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
     <col min="2" max="2" width="27.5454545454545" customWidth="1"/>
@@ -1650,20 +1644,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1671,18 +1665,18 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1690,47 +1684,51 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="1">
         <v>1234</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="2"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29"/>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1744,157 +1742,111 @@
         <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="1">
         <v>1234</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1234</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>4</v>
+      </c>
+      <c r="F7" s="28">
+        <v>4</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="26">
-        <v>2</v>
-      </c>
-      <c r="E10" s="26">
-        <v>4</v>
-      </c>
-      <c r="F10" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
-        <v>6</v>
-      </c>
-      <c r="F11" s="26">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="29"/>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="26" t="s">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0</v>
-      </c>
-      <c r="E13" s="26">
-        <v>6</v>
-      </c>
-      <c r="F13" s="26">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1919,74 +1871,74 @@
   <sheetData>
     <row r="1" ht="14.75" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" ht="14.75" spans="1:3">
       <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
-        <v>45</v>
+      <c r="A7" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" ht="14.75" spans="1:3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="18"/>
     </row>
@@ -2018,57 +1970,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" ht="14.75" spans="1:3">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
     </row>
     <row r="7" ht="14.75" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -2116,24 +2068,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/doc/draw/测试样例表.xlsx
+++ b/doc/draw/测试样例表.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>类</t>
   </si>
@@ -64,7 +64,7 @@
     <t>通过</t>
   </si>
   <si>
-    <t>相对路径中间出现了 .. 不会被检测</t>
+    <t>相对路径中间出现了不会被检测</t>
   </si>
   <si>
     <t>相对路径（./)</t>
@@ -73,6 +73,9 @@
     <t>相对路径（../)</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>Chunk::copyMemory</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>测试结果说明</t>
   </si>
   <si>
+    <t>其他</t>
+  </si>
+  <si>
     <t>memoryChunk</t>
   </si>
   <si>
@@ -100,7 +106,8 @@
     <t>readPtr</t>
   </si>
   <si>
-    <t>（-1或字符串读取的位置）</t>
+    <t>（-1或字符串
+读取的位置）</t>
   </si>
   <si>
     <t>/</t>
@@ -145,6 +152,86 @@
     <t>345*</t>
   </si>
   <si>
+    <t>RingChunk::push</t>
+  </si>
+  <si>
+    <t>内存大小为10</t>
+  </si>
+  <si>
+    <t>写指针</t>
+  </si>
+  <si>
+    <t>字符串位置</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>RingChunk::pop
+(直接输出一个内存块)</t>
+  </si>
+  <si>
+    <t>读指针</t>
+  </si>
+  <si>
+    <t>chunkArray</t>
+  </si>
+  <si>
+    <t>writeIndex</t>
+  </si>
+  <si>
+    <t>strPos</t>
+  </si>
+  <si>
+    <t>readIndex</t>
+  </si>
+  <si>
+    <t>连续输入四次</t>
+  </si>
+  <si>
+    <t>输入：123456</t>
+  </si>
+  <si>
+    <t>0:"123456****"</t>
+  </si>
+  <si>
+    <t>输出："1234561234"</t>
+  </si>
+  <si>
+    <t>1（满序情况下才为1）</t>
+  </si>
+  <si>
+    <t>0:"1234561234"</t>
+  </si>
+  <si>
+    <t>1:"56********"</t>
+  </si>
+  <si>
+    <t>输出："5612345612"</t>
+  </si>
+  <si>
+    <t>2（满序情况下才为2）</t>
+  </si>
+  <si>
+    <t>1:"56123456**"</t>
+  </si>
+  <si>
+    <t>1:"5612345612"</t>
+  </si>
+  <si>
+    <t>2:"3456******"</t>
+  </si>
+  <si>
+    <t>输出："3456******"</t>
+  </si>
+  <si>
+    <t>2（非满序情况
+下预期结果为2）</t>
+  </si>
+  <si>
+    <t>多线程环境</t>
+  </si>
+  <si>
     <t>标题</t>
   </si>
   <si>
@@ -185,6 +272,14 @@
   </si>
   <si>
     <t>逻辑覆盖测试</t>
+  </si>
+  <si>
+    <t>灰盒子测试</t>
+  </si>
+  <si>
+    <t>介于白盒测试和黑盒测试之间，
+需要对程序内部进行测试的同时，
+对接口返回值进行测试（此方案为开发人员主要测试应用方案）</t>
   </si>
   <si>
     <t>测试过程</t>
@@ -589,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -837,6 +932,45 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -981,7 +1115,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,34 +1127,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1105,7 +1239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1172,8 +1306,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1181,6 +1324,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,15 +1337,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1516,7 +1686,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1553,7 +1723,7 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1568,8 +1738,8 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1581,8 +1751,8 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1592,23 +1762,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="31"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="31"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="31"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1626,72 +1799,78 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
     <col min="2" max="2" width="27.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="18.5454545454545" customWidth="1"/>
     <col min="5" max="5" width="10.6363636363636" customWidth="1"/>
-    <col min="6" max="6" width="27.5454545454545" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="22.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="24"/>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="G1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="28" spans="1:8">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -1702,14 +1881,15 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>1234</v>
@@ -1723,14 +1903,15 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>1234</v>
@@ -1744,16 +1925,17 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>1234</v>
@@ -1767,45 +1949,46 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="28">
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
         <v>1234</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1816,19 +1999,20 @@
       <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1839,14 +2023,205 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>6</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="33"/>
+      <c r="B14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35">
+        <v>2</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="33"/>
+      <c r="B16" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35">
+        <v>8</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="33"/>
+      <c r="B17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" ht="28" spans="1:9">
+      <c r="A18" s="33"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2</v>
+      </c>
+      <c r="E18" s="35">
+        <v>4</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="13">
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I17"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1857,90 +2232,100 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="11.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="72.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="88.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.75" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" ht="14.75" spans="1:3">
       <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" ht="14.75" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="18"/>
+    <row r="9" spans="1:3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" ht="42" spans="1:3">
+      <c r="A10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1959,7 +2344,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1970,57 +2355,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" ht="14.75" spans="1:3">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
     </row>
     <row r="7" ht="14.75" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -2040,7 +2425,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2068,24 +2453,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/doc/draw/测试样例表.xlsx
+++ b/doc/draw/测试样例表.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>类</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>灰盒测试</t>
   </si>
   <si>
     <t>Chunk::copyMemory</t>
@@ -152,10 +155,10 @@
     <t>345*</t>
   </si>
   <si>
-    <t>RingChunk::push</t>
-  </si>
-  <si>
-    <t>内存大小为10</t>
+    <t>RingChunk::push（可做回归测试）</t>
+  </si>
+  <si>
+    <t>单个内存大小为10-&gt;16</t>
   </si>
   <si>
     <t>写指针</t>
@@ -174,62 +177,120 @@
     <t>读指针</t>
   </si>
   <si>
-    <t>chunkArray</t>
-  </si>
-  <si>
-    <t>writeIndex</t>
-  </si>
-  <si>
-    <t>strPos</t>
-  </si>
-  <si>
-    <t>readIndex</t>
+    <t>chunkArray（16）</t>
+  </si>
+  <si>
+    <t>writeIndex(end)</t>
+  </si>
+  <si>
+    <t>strPos(end)</t>
+  </si>
+  <si>
+    <t>readIndex(end)</t>
+  </si>
+  <si>
+    <t>连续输入六次</t>
+  </si>
+  <si>
+    <t>输入：123456</t>
+  </si>
+  <si>
+    <t>0:"123456**********"</t>
+  </si>
+  <si>
+    <t>输出："1234561234561234"</t>
+  </si>
+  <si>
+    <t>1（满序情况下才为1,
+非满序为0）</t>
+  </si>
+  <si>
+    <t>0:"123456123456****"</t>
+  </si>
+  <si>
+    <t>0:"1234561234561234"</t>
+  </si>
+  <si>
+    <t>1:"56**************"</t>
+  </si>
+  <si>
+    <t>输出："5612345612345612"</t>
+  </si>
+  <si>
+    <t>2（满序情况下才为2，
+非满序为1）</t>
+  </si>
+  <si>
+    <t>1:"56123456********"</t>
+  </si>
+  <si>
+    <t>1:"56123456123456**"</t>
+  </si>
+  <si>
+    <t>1:"5612345612345612"</t>
+  </si>
+  <si>
+    <t>2:"3456************"</t>
+  </si>
+  <si>
+    <t>输出："3456************"</t>
+  </si>
+  <si>
+    <t>单个内存大小为7-&gt;8</t>
+  </si>
+  <si>
+    <t>chunkArray（8）</t>
   </si>
   <si>
     <t>连续输入四次</t>
   </si>
   <si>
-    <t>输入：123456</t>
-  </si>
-  <si>
-    <t>0:"123456****"</t>
-  </si>
-  <si>
-    <t>输出："1234561234"</t>
-  </si>
-  <si>
-    <t>1（满序情况下才为1）</t>
-  </si>
-  <si>
-    <t>0:"1234561234"</t>
-  </si>
-  <si>
-    <t>1:"56********"</t>
-  </si>
-  <si>
-    <t>输出："5612345612"</t>
-  </si>
-  <si>
-    <t>2（满序情况下才为2）</t>
-  </si>
-  <si>
-    <t>1:"56123456**"</t>
-  </si>
-  <si>
-    <t>1:"5612345612"</t>
-  </si>
-  <si>
-    <t>2:"3456******"</t>
-  </si>
-  <si>
-    <t>输出："3456******"</t>
-  </si>
-  <si>
-    <t>2（非满序情况
-下预期结果为2）</t>
-  </si>
-  <si>
-    <t>多线程环境</t>
+    <t>0:"123456**"</t>
+  </si>
+  <si>
+    <t>输出："12345612"</t>
+  </si>
+  <si>
+    <t>0:"12345612"</t>
+  </si>
+  <si>
+    <t>1:"3456****"</t>
+  </si>
+  <si>
+    <t>输出："34561234"</t>
+  </si>
+  <si>
+    <t>1:"34561234"</t>
+  </si>
+  <si>
+    <t>2:"56******"</t>
+  </si>
+  <si>
+    <t>输出："56123456"</t>
+  </si>
+  <si>
+    <t>2:"56123456"</t>
+  </si>
+  <si>
+    <t>单个内存大小为3-&gt;4</t>
+  </si>
+  <si>
+    <t>chunkArray（4）</t>
+  </si>
+  <si>
+    <t>0:"1234"</t>
+  </si>
+  <si>
+    <t>0:"56**"</t>
+  </si>
+  <si>
+    <t>1:"5612"</t>
+  </si>
+  <si>
+    <t>2:"3456"</t>
+  </si>
+  <si>
+    <t>1:"56**"</t>
   </si>
   <si>
     <t>标题</t>
@@ -337,10 +398,24 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -490,12 +565,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -684,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -898,13 +979,29 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -913,10 +1010,21 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -968,14 +1076,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1109,137 +1237,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,61 +1440,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1723,7 +1866,7 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1738,8 +1881,8 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1751,8 +1894,8 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1764,7 +1907,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="43"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1774,14 +1917,14 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="43"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="43"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1799,143 +1942,124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.6363636363636" customWidth="1"/>
     <col min="2" max="2" width="27.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="10.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="12.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="22.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="27.5454545454545" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="F3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="28" spans="1:8">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="1" t="s">
+      <c r="H3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" ht="28" spans="1:9">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F5" s="1">
         <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>1234</v>
@@ -1947,19 +2071,18 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>1234</v>
@@ -1971,257 +2094,791 @@
         <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="1"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1234</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="1"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1234</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="G13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36">
+        <v>6</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
+        <v>6</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
+        <v>4</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="36">
+        <v>6</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <v>6</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="36">
+        <v>6</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="38">
+        <v>3</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29" t="s">
+      <c r="F24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="I24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
+      <c r="E25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="33" t="s">
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="34" t="s">
+      <c r="I25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="29">
+      <c r="C26" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="39">
         <v>0</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E26" s="39">
         <v>6</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="33"/>
-      <c r="B14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="29">
+      <c r="F26" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="40">
         <v>1</v>
       </c>
-      <c r="E14" s="35">
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="39">
         <v>0</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="33"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="E27" s="39">
+        <v>2</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="39">
         <v>1</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E28" s="39">
+        <v>6</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="40">
         <v>2</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="38"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="33"/>
-      <c r="B16" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="39">
         <v>1</v>
       </c>
-      <c r="E16" s="35">
-        <v>8</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="33"/>
-      <c r="B17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="E29" s="39">
+        <v>4</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="39"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="39">
         <v>2</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E30" s="39">
+        <v>6</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="40">
+        <v>3</v>
+      </c>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="39">
+        <v>2</v>
+      </c>
+      <c r="E31" s="39">
+        <v>6</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="39">
         <v>0</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" ht="28" spans="1:9">
-      <c r="A18" s="33"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="E35" s="39">
+        <v>4</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="39">
+        <v>0</v>
+      </c>
+      <c r="E36" s="39">
+        <v>6</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="39">
+        <v>1</v>
+      </c>
+      <c r="E37" s="39">
         <v>2</v>
       </c>
-      <c r="E18" s="35">
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="39">
+        <v>2</v>
+      </c>
+      <c r="E38" s="39">
+        <v>6</v>
+      </c>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="39">
         <v>4</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="39">
+        <v>1</v>
+      </c>
+      <c r="E40" s="39">
+        <v>2</v>
+      </c>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="39">
+        <v>1</v>
+      </c>
+      <c r="E41" s="39">
+        <v>2</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="39">
+        <v>2</v>
+      </c>
+      <c r="E42" s="39">
+        <v>6</v>
+      </c>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="35">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G33:G34"/>
     <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
     <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A33:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2235,7 +2892,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2247,84 +2904,84 @@
   <sheetData>
     <row r="1" ht="14.75" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" ht="14.75" spans="1:3">
       <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" ht="42" spans="1:3">
-      <c r="A10" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="s">
-        <v>80</v>
+      <c r="A10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2355,57 +3012,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" ht="14.75" spans="1:3">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
     </row>
     <row r="7" ht="14.75" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -2425,7 +3082,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2453,24 +3110,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/doc/draw/测试样例表.xlsx
+++ b/doc/draw/测试样例表.xlsx
@@ -13,6 +13,7 @@
     <sheet name="测试过程" sheetId="4" r:id="rId4"/>
     <sheet name="软件质量评估" sheetId="5" r:id="rId5"/>
     <sheet name="软件度量" sheetId="6" r:id="rId6"/>
+    <sheet name="草稿" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
   <si>
     <t>类</t>
   </si>
@@ -1367,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1484,18 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1866,7 +1855,7 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1881,8 +1870,8 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1894,8 +1883,8 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1907,7 +1896,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="48"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1917,14 +1906,14 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="48"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="48"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1944,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1972,9 +1961,9 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" ht="14.75" spans="1:9">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1983,7 +1972,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
-      <c r="I2" s="44"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="29" t="s">
@@ -2008,7 +1997,7 @@
       <c r="H3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="45"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" ht="28" spans="1:9">
       <c r="A4" s="32"/>
@@ -2029,7 +2018,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="42"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
@@ -2054,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="42"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
@@ -2077,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="42"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
@@ -2100,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="42"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
@@ -2125,7 +2114,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="42"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
@@ -2152,7 +2141,7 @@
       <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
@@ -2177,7 +2166,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
@@ -2202,7 +2191,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="42"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="34"/>
@@ -2511,142 +2500,142 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="1">
         <v>6</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="9">
         <v>1</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="39"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="39" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="9">
         <v>2</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="39"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="39" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="1">
         <v>2</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="1">
         <v>6</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="9">
         <v>3</v>
       </c>
-      <c r="I30" s="40"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="1">
         <v>6</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -2663,17 +2652,8 @@
       <c r="F33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -2688,162 +2668,131 @@
       <c r="F34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="39" t="s">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="1">
         <v>4</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39" t="s">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="1">
         <v>6</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39" t="s">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39" t="s">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="1">
         <v>6</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39" t="s">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39" t="s">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39" t="s">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39" t="s">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="1">
         <v>2</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="1">
         <v>6</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
+      <c r="F42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="34">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A26:A31"/>
@@ -2863,7 +2812,6 @@
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G33:G34"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="H26:H27"/>
@@ -3134,4 +3082,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/draw/测试样例表.xlsx
+++ b/doc/draw/测试样例表.xlsx
@@ -1933,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/doc/draw/测试样例表.xlsx
+++ b/doc/draw/测试样例表.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
   <si>
     <t>类</t>
   </si>
@@ -282,16 +282,16 @@
     <t>0:"1234"</t>
   </si>
   <si>
-    <t>0:"56**"</t>
+    <t>1:"56**"</t>
   </si>
   <si>
     <t>1:"5612"</t>
   </si>
   <si>
+    <t>2:"3456"（已满）</t>
+  </si>
+  <si>
     <t>2:"3456"</t>
-  </si>
-  <si>
-    <t>1:"56**"</t>
   </si>
   <si>
     <t>标题</t>
@@ -766,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1085,6 +1085,51 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1244,7 +1289,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1256,34 +1301,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,19 +1531,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1855,7 +1912,7 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1870,8 +1927,8 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1883,8 +1940,8 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1896,7 +1953,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="44"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1906,14 +1963,14 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="44"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1933,8 +1990,8 @@
   <sheetPr/>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1961,7 +2018,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
-      <c r="I1" s="39"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" ht="14.75" spans="1:9">
       <c r="A2" s="27"/>
@@ -1972,7 +2029,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
-      <c r="I2" s="40"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="29" t="s">
@@ -1997,7 +2054,7 @@
       <c r="H3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="41"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" ht="28" spans="1:9">
       <c r="A4" s="32"/>
@@ -2279,9 +2336,7 @@
       <c r="H15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
@@ -2318,9 +2373,7 @@
       <c r="E17" s="36">
         <v>4</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="F17" s="36"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2337,18 +2390,14 @@
       <c r="E18" s="36">
         <v>6</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="F18" s="36"/>
       <c r="G18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
@@ -2364,9 +2413,7 @@
       <c r="E19" s="36">
         <v>6</v>
       </c>
-      <c r="F19" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="F19" s="36"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2385,9 +2432,7 @@
       <c r="E20" s="36">
         <v>6</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="F20" s="36"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2406,9 +2451,7 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="F21" s="36"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2425,18 +2468,14 @@
       <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>9</v>
-      </c>
+      <c r="F22" s="36"/>
       <c r="G22" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H22" s="38">
         <v>3</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>9</v>
-      </c>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="34"/>
@@ -2515,9 +2554,7 @@
       <c r="E26" s="1">
         <v>6</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F26" s="36"/>
       <c r="G26" s="9" t="s">
         <v>70</v>
       </c>
@@ -2540,9 +2577,7 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F27" s="36"/>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
@@ -2559,9 +2594,7 @@
       <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F28" s="36"/>
       <c r="G28" s="9" t="s">
         <v>73</v>
       </c>
@@ -2584,9 +2617,7 @@
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F29" s="36"/>
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
@@ -2603,9 +2634,7 @@
       <c r="E30" s="1">
         <v>6</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F30" s="36"/>
       <c r="G30" s="9" t="s">
         <v>76</v>
       </c>
@@ -2628,9 +2657,7 @@
       <c r="E31" s="1">
         <v>6</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F31" s="36"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
@@ -2653,10 +2680,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" ht="14.75" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2673,13 +2700,13 @@
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="35">
         <v>0</v>
       </c>
       <c r="E35" s="1">
@@ -2689,27 +2716,27 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="1">
-        <v>0</v>
+      <c r="D36" s="35">
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>6</v>
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" ht="14.75" spans="1:6">
       <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="35">
         <v>1</v>
       </c>
       <c r="E37" s="1">
@@ -2720,7 +2747,7 @@
     <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="42" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="1">
@@ -2736,11 +2763,11 @@
       <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
@@ -2750,11 +2777,11 @@
     <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>84</v>
+      <c r="C40" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -2766,11 +2793,11 @@
       <c r="B41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="43" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -2780,11 +2807,11 @@
     <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
+      <c r="C42" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1">
         <v>6</v>

--- a/doc/draw/测试样例表.xlsx
+++ b/doc/draw/测试样例表.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="139">
   <si>
     <t>类</t>
   </si>
@@ -190,7 +190,7 @@
     <t>readIndex(end)</t>
   </si>
   <si>
-    <t>连续输入六次</t>
+    <t>连续输入六次(flag_1)</t>
   </si>
   <si>
     <t>输入：123456</t>
@@ -243,7 +243,7 @@
     <t>chunkArray（8）</t>
   </si>
   <si>
-    <t>连续输入四次</t>
+    <t>连续输入四次(flag_2)</t>
   </si>
   <si>
     <t>0:"123456**"</t>
@@ -279,6 +279,9 @@
     <t>chunkArray（4）</t>
   </si>
   <si>
+    <t>连续输入四次(flag_3)</t>
+  </si>
+  <si>
     <t>0:"1234"</t>
   </si>
   <si>
@@ -292,6 +295,72 @@
   </si>
   <si>
     <t>2:"3456"</t>
+  </si>
+  <si>
+    <t>RingChunk::push / RingChunk::pop</t>
+  </si>
+  <si>
+    <t>使用内存块</t>
+  </si>
+  <si>
+    <t>sizeOfUse() write-read(end)</t>
+  </si>
+  <si>
+    <t>多次 push / pop</t>
+  </si>
+  <si>
+    <t>输入:123456</t>
+  </si>
+  <si>
+    <t>(1-0)+1=2</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>0:pop</t>
+  </si>
+  <si>
+    <t>(1-1)+1=1</t>
+  </si>
+  <si>
+    <t>(2-1)+1=2</t>
+  </si>
+  <si>
+    <t>3:"1234"</t>
+  </si>
+  <si>
+    <t>(3-1)+1=3</t>
+  </si>
+  <si>
+    <t>4:"56**"</t>
+  </si>
+  <si>
+    <t>(4-1)+1=4</t>
+  </si>
+  <si>
+    <t>1:pop</t>
+  </si>
+  <si>
+    <t>(4-2)+1=3</t>
+  </si>
+  <si>
+    <t>2:pop</t>
+  </si>
+  <si>
+    <t>(4-3)+1=2</t>
+  </si>
+  <si>
+    <t>3:pop</t>
+  </si>
+  <si>
+    <t>(4-4)+1=1</t>
+  </si>
+  <si>
+    <t>4:pop</t>
+  </si>
+  <si>
+    <t>(4-5)+1=0</t>
   </si>
   <si>
     <t>标题</t>
@@ -766,7 +835,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1133,6 +1202,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1152,17 +1243,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1289,7 +1369,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1301,34 +1381,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1413,7 +1493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1546,16 +1626,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1875,7 +1988,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1927,7 +2040,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="43" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +2053,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="47"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="43" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +2066,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
-      <c r="B5" s="48"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1963,14 +2076,14 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="48"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
-      <c r="B7" s="48"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1988,10 +2101,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2000,8 +2113,8 @@
     <col min="2" max="2" width="27.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="18.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="12.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="16.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="30.9090909090909" customWidth="1"/>
     <col min="7" max="7" width="27.5454545454545" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="9.54545454545454" customWidth="1"/>
@@ -2018,7 +2131,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
-      <c r="I1" s="44"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" ht="14.75" spans="1:9">
       <c r="A2" s="27"/>
@@ -2029,7 +2142,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
-      <c r="I2" s="45"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="29" t="s">
@@ -2054,7 +2167,7 @@
       <c r="H3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" ht="28" spans="1:9">
       <c r="A4" s="32"/>
@@ -2698,13 +2811,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35" s="35">
         <v>0</v>
@@ -2718,7 +2831,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="36"/>
       <c r="C36" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="35">
         <v>1</v>
@@ -2734,7 +2847,7 @@
         <v>52</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="35">
         <v>1</v>
@@ -2748,7 +2861,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -2764,7 +2877,7 @@
         <v>52</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -2778,7 +2891,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -2794,7 +2907,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -2808,7 +2921,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
@@ -2818,12 +2931,313 @@
       </c>
       <c r="F42" s="2"/>
     </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="46">
+        <v>4</v>
+      </c>
+      <c r="H46" s="50"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="51"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="46">
+        <v>1</v>
+      </c>
+      <c r="E47" s="46">
+        <v>0</v>
+      </c>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46">
+        <v>6</v>
+      </c>
+      <c r="H47" s="50"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="51"/>
+      <c r="B48" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="46">
+        <v>1</v>
+      </c>
+      <c r="E48" s="46">
+        <v>1</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="46">
+        <v>2</v>
+      </c>
+      <c r="H48" s="50"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="51"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="46">
+        <v>1</v>
+      </c>
+      <c r="E49" s="46">
+        <v>1</v>
+      </c>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46">
+        <v>6</v>
+      </c>
+      <c r="H49" s="50"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="51"/>
+      <c r="B50" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="46">
+        <v>1</v>
+      </c>
+      <c r="E50" s="46">
+        <v>1</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="46">
+        <v>2</v>
+      </c>
+      <c r="H50" s="50"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="51"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="46">
+        <v>2</v>
+      </c>
+      <c r="E51" s="46">
+        <v>1</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="46">
+        <v>6</v>
+      </c>
+      <c r="H51" s="50"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="51"/>
+      <c r="B52" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="46">
+        <v>3</v>
+      </c>
+      <c r="E52" s="46">
+        <v>1</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="46">
+        <v>4</v>
+      </c>
+      <c r="H52" s="46"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="51"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="46">
+        <v>4</v>
+      </c>
+      <c r="E53" s="46">
+        <v>1</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="46">
+        <v>6</v>
+      </c>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="51"/>
+      <c r="B54" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="46">
+        <v>4</v>
+      </c>
+      <c r="E54" s="46">
+        <v>2</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="46">
+        <v>6</v>
+      </c>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="51"/>
+      <c r="B55" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="46">
+        <v>4</v>
+      </c>
+      <c r="E55" s="46">
+        <v>3</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="46">
+        <v>6</v>
+      </c>
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="51"/>
+      <c r="B56" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="46">
+        <v>4</v>
+      </c>
+      <c r="E56" s="46">
+        <v>4</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="46">
+        <v>6</v>
+      </c>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="54"/>
+      <c r="B57" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="46">
+        <v>4</v>
+      </c>
+      <c r="E57" s="46">
+        <v>5</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="46">
+        <v>6</v>
+      </c>
+      <c r="H57" s="50"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="42">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A46:A57"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B27:B28"/>
@@ -2832,6 +3246,12 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G18:G21"/>
@@ -2854,6 +3274,7 @@
     <mergeCell ref="A24:B25"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A44:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2879,84 +3300,84 @@
   <sheetData>
     <row r="1" ht="14.75" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C5" s="18"/>
     </row>
     <row r="6" ht="14.75" spans="1:3">
       <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" ht="42" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="24" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2987,57 +3408,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" ht="14.75" spans="1:3">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
     </row>
     <row r="7" ht="14.75" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -3085,24 +3506,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
